--- a/biology/Zoologie/Colombe_mondétour/Colombe_mondétour.xlsx
+++ b/biology/Zoologie/Colombe_mondétour/Colombe_mondétour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombe_mond%C3%A9tour</t>
+          <t>Colombe_mondétour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claravis mondetoura
 La Colombe mondétour (Paraclaravis mondetoura, syn. : Claravis mondetoura) ou Colombe à poitrine pourpre, est une espèce d'oiseau appartenant à la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombe_mond%C3%A9tour</t>
+          <t>Colombe_mondétour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 18 à 24 cm pour une masse de 90 à 95 g.
 Le mâle présente un plumage essentiellement gris foncé avec la face et la gorge blanchâtres. La poitrine et le ventre sont marron pourpre sombre. Des taches pourpres marquent les ailes. Le dessous de la queue est blanc. Les iris sont orange avec un cercle oculaire jaune. Le bec est noir et les pattes sont rouges.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombe_mond%C3%A9tour</t>
+          <t>Colombe_mondétour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend du sud-est du Mexique à la Bolivie.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombe_mond%C3%A9tour</t>
+          <t>Colombe_mondétour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les forêts entre 900 et 3 000 m d'altitude.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colombe_mond%C3%A9tour</t>
+          <t>Colombe_mondétour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit au sol de fruits et de graines.
 </t>
